--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -658,7 +658,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2087,7 +2087,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,14 +654,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2087,7 +2084,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3877,10 +3874,10 @@
         <v>205</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3904,13 +3901,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3918,13 +3915,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3958,7 +3955,7 @@
         <v>200</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4028,13 +4025,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4042,10 +4039,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4068,13 +4065,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4125,7 +4122,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4160,10 +4157,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4192,7 +4189,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4245,7 +4242,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4280,10 +4277,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4306,19 +4303,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4367,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4388,10 +4385,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4402,10 +4399,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4428,13 +4425,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4485,7 +4482,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4520,10 +4517,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4552,7 +4549,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4605,7 +4602,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4640,10 +4637,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4669,65 +4666,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4748,10 +4745,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4762,10 +4759,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4788,16 +4785,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4847,7 +4844,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4868,10 +4865,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4911,65 +4908,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4990,10 +4987,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5004,10 +5001,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5030,19 +5027,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5091,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5112,10 +5109,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5126,10 +5123,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5152,19 +5149,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5213,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5234,10 +5231,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5248,10 +5245,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5274,19 +5271,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5335,7 +5332,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5356,10 +5353,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5370,13 +5367,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5410,7 +5407,7 @@
         <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5420,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5480,13 +5477,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5494,13 +5491,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5534,7 +5531,7 @@
         <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5544,7 +5541,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5604,13 +5601,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5618,14 +5615,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5647,16 +5644,16 @@
         <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5681,14 +5678,14 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5705,7 +5702,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5720,30 +5717,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5766,19 +5763,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5827,7 +5824,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5842,19 +5839,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5862,10 +5859,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5888,16 +5885,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5947,7 +5944,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5968,13 +5965,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5982,14 +5979,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6008,19 +6005,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6069,7 +6066,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6084,19 +6081,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6104,14 +6101,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6130,19 +6127,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6191,7 +6188,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6206,19 +6203,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6226,10 +6223,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6252,16 +6249,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6311,7 +6308,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6332,13 +6329,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6346,10 +6343,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6372,19 +6369,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6433,7 +6430,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6448,19 +6445,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6468,10 +6465,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6494,19 +6491,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6555,7 +6552,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6564,7 +6561,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6573,27 +6570,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6619,16 +6616,16 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6653,14 +6650,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6686,7 +6683,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6701,7 +6698,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6712,14 +6709,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6741,16 +6738,16 @@
         <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6775,14 +6772,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6799,7 +6796,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6817,27 +6814,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6860,19 +6857,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6921,7 +6918,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6942,10 +6939,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6956,10 +6953,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6985,13 +6982,13 @@
         <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7017,14 +7014,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7059,27 +7056,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7105,16 +7102,16 @@
         <v>197</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7139,14 +7136,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7163,7 +7160,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7184,10 +7181,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7198,10 +7195,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7224,16 +7221,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7283,7 +7280,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7301,27 +7298,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>438</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7344,16 +7341,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7403,7 +7400,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7421,27 +7418,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7464,19 +7461,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7525,7 +7522,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7537,19 +7534,19 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7560,10 +7557,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7586,13 +7583,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7643,7 +7640,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7678,10 +7675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7710,7 +7707,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7763,7 +7760,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7798,14 +7795,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7827,10 +7824,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7885,7 +7882,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7920,10 +7917,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7946,16 +7943,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8005,7 +8002,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8014,22 +8011,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8040,10 +8037,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8066,16 +8063,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8125,7 +8122,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8134,22 +8131,22 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8160,10 +8157,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8189,16 +8186,16 @@
         <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8226,11 +8223,11 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8247,7 +8244,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8265,13 +8262,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8282,10 +8279,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8311,16 +8308,16 @@
         <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8345,14 +8342,14 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8369,7 +8366,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8387,13 +8384,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8404,10 +8401,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8430,19 +8427,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8491,7 +8488,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8503,19 +8500,19 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8526,10 +8523,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8552,16 +8549,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8611,7 +8608,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8632,10 +8629,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8646,10 +8643,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8672,16 +8669,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8731,7 +8728,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8752,10 +8749,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8766,10 +8763,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8792,16 +8789,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8851,7 +8848,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8872,10 +8869,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8886,10 +8883,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8912,19 +8909,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8973,7 +8970,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8994,10 +8991,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9008,10 +9005,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9034,13 +9031,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9091,7 +9088,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9126,10 +9123,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9158,7 +9155,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9211,7 +9208,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9246,14 +9243,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9275,10 +9272,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9333,7 +9330,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9368,10 +9365,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9397,16 +9394,16 @@
         <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9431,14 +9428,14 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9455,7 +9452,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9473,16 +9470,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9490,10 +9487,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9516,19 +9513,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9577,7 +9574,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9595,27 +9592,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9641,16 +9638,16 @@
         <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9675,14 +9672,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9708,7 +9705,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9723,7 +9720,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9734,14 +9731,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9763,16 +9760,16 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9797,14 +9794,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9839,27 +9836,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9885,16 +9882,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9943,7 +9940,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9964,10 +9961,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,11 +654,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3874,10 +3877,10 @@
         <v>205</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3901,13 +3904,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3915,13 +3918,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3955,7 +3958,7 @@
         <v>200</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4025,13 +4028,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4039,10 +4042,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4065,13 +4068,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4122,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4157,10 +4160,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4189,7 +4192,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4242,7 +4245,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4288,13 +4291,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4303,19 +4306,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4364,7 +4367,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4385,10 +4388,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4399,10 +4402,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4425,13 +4428,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4482,7 +4485,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4517,10 +4520,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4549,7 +4552,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4602,7 +4605,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4637,10 +4640,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4648,13 +4651,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4666,23 +4669,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4724,7 +4727,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4745,10 +4748,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4759,10 +4762,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4785,16 +4788,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4844,7 +4847,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4865,10 +4868,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4879,10 +4882,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4890,13 +4893,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4908,23 +4911,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4966,7 +4969,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4987,10 +4990,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5001,10 +5004,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5027,19 +5030,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5088,7 +5091,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5109,10 +5112,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5123,10 +5126,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5149,19 +5152,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5210,7 +5213,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5231,10 +5234,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5245,10 +5248,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5271,19 +5274,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5332,7 +5335,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5353,10 +5356,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5367,13 +5370,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5407,7 +5410,7 @@
         <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5417,7 +5420,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5477,13 +5480,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5491,13 +5494,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5531,7 +5534,7 @@
         <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5541,7 +5544,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5601,13 +5604,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5615,14 +5618,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5644,16 +5647,16 @@
         <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5678,13 +5681,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5702,7 +5705,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5717,30 +5720,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5763,19 +5766,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5824,7 +5827,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5839,19 +5842,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5859,10 +5862,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5885,16 +5888,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5944,7 +5947,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5965,13 +5968,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5979,14 +5982,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6005,19 +6008,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6066,7 +6069,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6081,19 +6084,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6101,14 +6104,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6127,19 +6130,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6188,7 +6191,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6203,19 +6206,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6223,10 +6226,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6249,16 +6252,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6308,7 +6311,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6329,13 +6332,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6343,10 +6346,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6369,19 +6372,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6430,7 +6433,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6445,19 +6448,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6491,19 +6494,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6552,7 +6555,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6561,7 +6564,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6570,27 +6573,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6616,16 +6619,16 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6650,13 +6653,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6674,7 +6677,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6683,7 +6686,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6698,7 +6701,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6709,14 +6712,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6738,16 +6741,16 @@
         <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6772,13 +6775,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6796,7 +6799,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6814,27 +6817,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6857,19 +6860,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6918,7 +6921,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6939,10 +6942,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6953,10 +6956,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6982,13 +6985,13 @@
         <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7014,13 +7017,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7038,7 +7041,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7056,27 +7059,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7102,16 +7105,16 @@
         <v>197</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7136,13 +7139,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7160,7 +7163,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7181,10 +7184,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7195,10 +7198,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7221,16 +7224,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7280,7 +7283,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7298,27 +7301,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7341,16 +7344,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7400,7 +7403,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7418,27 +7421,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7461,19 +7464,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7522,7 +7525,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7534,7 +7537,7 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7543,10 +7546,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7557,10 +7560,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7583,13 +7586,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7640,7 +7643,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7678,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7707,7 +7710,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7760,7 +7763,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7795,14 +7798,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7824,10 +7827,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7882,7 +7885,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7917,10 +7920,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7943,16 +7946,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8002,7 +8005,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8011,10 +8014,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8023,10 +8026,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8037,10 +8040,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8063,16 +8066,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8122,7 +8125,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8131,10 +8134,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8143,10 +8146,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8157,10 +8160,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8186,16 +8189,16 @@
         <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8223,10 +8226,10 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8244,7 +8247,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8262,13 +8265,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8279,10 +8282,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8308,16 +8311,16 @@
         <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8342,13 +8345,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8366,7 +8369,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8384,13 +8387,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8401,10 +8404,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8427,19 +8430,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8488,7 +8491,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8500,7 +8503,7 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8509,10 +8512,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8523,10 +8526,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8549,16 +8552,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8608,7 +8611,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8629,10 +8632,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8643,10 +8646,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8669,16 +8672,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8728,7 +8731,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8749,10 +8752,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8763,10 +8766,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8789,16 +8792,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8848,7 +8851,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8869,10 +8872,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8883,10 +8886,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8909,19 +8912,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8970,7 +8973,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8991,10 +8994,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9005,10 +9008,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9031,13 +9034,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9088,7 +9091,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9123,10 +9126,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9155,7 +9158,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9208,7 +9211,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9243,14 +9246,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9272,10 +9275,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9330,7 +9333,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9365,10 +9368,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9394,16 +9397,16 @@
         <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9428,13 +9431,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9452,7 +9455,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9470,16 +9473,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9487,10 +9490,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9513,19 +9516,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9574,7 +9577,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9592,27 +9595,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9638,16 +9641,16 @@
         <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9672,13 +9675,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9696,7 +9699,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9705,7 +9708,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9720,7 +9723,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9731,14 +9734,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9760,16 +9763,16 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9794,13 +9797,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9818,7 +9821,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9836,27 +9839,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9882,16 +9885,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9940,7 +9943,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9961,10 +9964,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
+++ b/output/StructureDefinition-cls-l1-health-related-behavior-and-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
